--- a/apps/load_data/2018/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/08/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0818\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7D49BD-022E-46B5-89B1-8DA79B964C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335CEBC-210D-42D3-94F5-E89D4B88B51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$269</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$269</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10207" uniqueCount="2645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10194" uniqueCount="2643">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6457,9 +6458,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    126101    1261011081    326625    3266251082    175875    1758752001         0     424612006     44900     449002026    324744    3247442027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7781,9 +7779,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -7963,7 +7958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8803,10 +8798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD273" sqref="AD273"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -44051,12 +44048,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -44115,10 +44107,10 @@
         <v>108</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2145</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2146</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>111</v>
@@ -44130,7 +44122,7 @@
         <v>150</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>115</v>
@@ -44151,13 +44143,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2149</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2150</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -44192,13 +44184,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2152</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2153</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -44230,12 +44222,7 @@
       <c r="AB210" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44282,7 +44269,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BB210" s="1">
         <v>8</v>
@@ -44294,10 +44281,10 @@
         <v>108</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2155</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2156</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>111</v>
@@ -44309,13 +44296,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>115</v>
@@ -44339,13 +44326,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44380,13 +44367,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2162</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2163</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44418,12 +44405,7 @@
       <c r="AB211" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44470,7 +44452,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BB211" s="1">
         <v>8</v>
@@ -44485,10 +44467,10 @@
         <v>108</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2166</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>111</v>
@@ -44500,13 +44482,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>115</v>
@@ -44530,13 +44512,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44571,13 +44553,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2174</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44606,12 +44588,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44661,7 +44638,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BB212" s="1">
         <v>8</v>
@@ -44673,7 +44650,7 @@
         <v>108</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>930</v>
@@ -44685,7 +44662,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>115</v>
@@ -44703,13 +44680,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44744,13 +44721,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2182</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44779,12 +44756,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -44834,7 +44806,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BB213" s="1">
         <v>8</v>
@@ -44846,7 +44818,7 @@
         <v>108</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>111</v>
@@ -44855,7 +44827,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>115</v>
@@ -44876,10 +44848,10 @@
         <v>638</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -44914,13 +44886,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -44949,12 +44921,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45004,7 +44971,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BB214" s="1">
         <v>8</v>
@@ -45016,10 +44983,10 @@
         <v>108</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2193</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>111</v>
@@ -45028,7 +44995,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>115</v>
@@ -45046,13 +45013,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2195</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45087,13 +45054,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2199</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45128,12 +45095,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45180,7 +45142,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BB215" s="1">
         <v>8</v>
@@ -45189,16 +45151,16 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>111</v>
@@ -45210,13 +45172,13 @@
         <v>112</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>115</v>
@@ -45234,13 +45196,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2207</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45275,13 +45237,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45310,12 +45272,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -45365,7 +45322,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BB216" s="1">
         <v>8</v>
@@ -45377,7 +45334,7 @@
         <v>108</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>570</v>
@@ -45389,7 +45346,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>115</v>
@@ -45407,13 +45364,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45448,13 +45405,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45483,12 +45440,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45538,7 +45490,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BB217" s="1">
         <v>8</v>
@@ -45550,7 +45502,7 @@
         <v>108</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>570</v>
@@ -45565,7 +45517,7 @@
         <v>150</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>115</v>
@@ -45583,13 +45535,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2225</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45624,13 +45576,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45659,12 +45611,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45711,7 +45658,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BB218" s="1">
         <v>8</v>
@@ -45720,16 +45667,16 @@
         <v>18</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>111</v>
@@ -45741,13 +45688,13 @@
         <v>209</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>115</v>
@@ -45765,13 +45712,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45806,13 +45753,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2239</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2240</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -45844,12 +45791,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -45899,7 +45841,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BB219" s="1">
         <v>8</v>
@@ -45914,7 +45856,7 @@
         <v>108</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>774</v>
@@ -45926,7 +45868,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>115</v>
@@ -45947,13 +45889,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -45988,13 +45930,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46023,12 +45965,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2144</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46075,7 +46012,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BB220" s="1">
         <v>8</v>
@@ -46090,10 +46027,10 @@
         <v>108</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>111</v>
@@ -46105,13 +46042,13 @@
         <v>112</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>115</v>
@@ -46129,13 +46066,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46170,13 +46107,13 @@
         <v>157</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46227,7 +46164,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -46266,13 +46203,13 @@
         <v>108</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>115</v>
@@ -46296,10 +46233,10 @@
         <v>2040</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46334,13 +46271,13 @@
         <v>157</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46394,7 +46331,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46433,13 +46370,13 @@
         <v>108</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>115</v>
@@ -46460,13 +46397,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46501,13 +46438,13 @@
         <v>157</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46561,7 +46498,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46600,13 +46537,13 @@
         <v>108</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>115</v>
@@ -46627,13 +46564,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46668,13 +46605,13 @@
         <v>157</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46764,13 +46701,13 @@
         <v>108</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>115</v>
@@ -46791,10 +46728,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>197</v>
@@ -46832,13 +46769,13 @@
         <v>157</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -46892,7 +46829,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -46931,13 +46868,13 @@
         <v>108</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>115</v>
@@ -46961,13 +46898,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -47002,13 +46939,13 @@
         <v>157</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47059,7 +46996,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47098,13 +47035,13 @@
         <v>108</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>115</v>
@@ -47125,13 +47062,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2216</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -47166,10 +47103,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>220</v>
@@ -47235,7 +47172,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -47253,7 +47190,7 @@
         <v>224</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -47282,16 +47219,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>220</v>
@@ -47360,7 +47297,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>117</v>
@@ -47372,7 +47309,7 @@
         <v>224</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -47407,13 +47344,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47491,7 +47428,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BB229" s="1">
         <v>8</v>
@@ -47503,7 +47440,7 @@
         <v>108</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>111</v>
@@ -47515,7 +47452,7 @@
         <v>150</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>115</v>
@@ -47533,13 +47470,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -47574,13 +47511,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47655,7 +47592,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BB230" s="1">
         <v>8</v>
@@ -47667,7 +47604,7 @@
         <v>108</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1694</v>
@@ -47682,13 +47619,13 @@
         <v>209</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>115</v>
@@ -47706,13 +47643,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -47747,13 +47684,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -47828,7 +47765,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BB231" s="1">
         <v>8</v>
@@ -47840,10 +47777,10 @@
         <v>108</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>111</v>
@@ -47855,13 +47792,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>115</v>
@@ -47879,13 +47816,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -47920,13 +47857,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48004,7 +47941,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BB232" s="1">
         <v>8</v>
@@ -48016,7 +47953,7 @@
         <v>108</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1016</v>
@@ -48028,7 +47965,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>115</v>
@@ -48046,13 +47983,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>802</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -48087,13 +48024,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2345</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2346</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2347</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48126,7 +48063,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1713</v>
@@ -48171,7 +48108,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BB233" s="1">
         <v>8</v>
@@ -48183,7 +48120,7 @@
         <v>108</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1651</v>
@@ -48195,7 +48132,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>115</v>
@@ -48216,10 +48153,10 @@
         <v>1437</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -48254,13 +48191,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48338,7 +48275,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BB234" s="1">
         <v>8</v>
@@ -48350,7 +48287,7 @@
         <v>108</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1774</v>
@@ -48362,7 +48299,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>115</v>
@@ -48386,7 +48323,7 @@
         <v>873</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -48421,13 +48358,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48505,7 +48442,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BB235" s="1">
         <v>8</v>
@@ -48517,7 +48454,7 @@
         <v>108</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>850</v>
@@ -48529,7 +48466,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>115</v>
@@ -48547,13 +48484,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -48588,13 +48525,13 @@
         <v>157</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48636,7 +48573,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -48669,13 +48606,13 @@
         <v>108</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>115</v>
@@ -48693,13 +48630,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>291</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -48734,13 +48671,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2380</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -48779,7 +48716,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -48833,16 +48770,16 @@
         <v>18</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2382</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2383</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>111</v>
@@ -48854,13 +48791,13 @@
         <v>209</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>115</v>
@@ -48881,7 +48818,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>281</v>
@@ -48922,13 +48859,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -49015,10 +48952,10 @@
         <v>108</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>111</v>
@@ -49030,13 +48967,13 @@
         <v>112</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>115</v>
@@ -49060,7 +48997,7 @@
         <v>628</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -49095,13 +49032,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -49188,7 +49125,7 @@
         <v>108</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>111</v>
@@ -49197,7 +49134,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>115</v>
@@ -49215,13 +49152,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -49256,13 +49193,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2404</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2405</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -49349,7 +49286,7 @@
         <v>108</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>850</v>
@@ -49361,7 +49298,7 @@
         <v>102</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>115</v>
@@ -49379,13 +49316,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -49420,13 +49357,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -49513,10 +49450,10 @@
         <v>108</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>111</v>
@@ -49528,13 +49465,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>115</v>
@@ -49555,10 +49492,10 @@
         <v>505</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -49593,13 +49530,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -49686,10 +49623,10 @@
         <v>108</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>111</v>
@@ -49701,13 +49638,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>115</v>
@@ -49728,10 +49665,10 @@
         <v>873</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -49766,13 +49703,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -49856,7 +49793,7 @@
         <v>108</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>1016</v>
@@ -49871,13 +49808,13 @@
         <v>112</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>115</v>
@@ -49895,13 +49832,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -49936,13 +49873,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -50029,7 +49966,7 @@
         <v>108</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1684</v>
@@ -50044,13 +49981,13 @@
         <v>112</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>115</v>
@@ -50068,13 +50005,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -50109,13 +50046,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -50202,7 +50139,7 @@
         <v>108</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>111</v>
@@ -50211,7 +50148,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>115</v>
@@ -50232,10 +50169,10 @@
         <v>1138</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -50270,13 +50207,13 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
@@ -50354,7 +50291,7 @@
         <v>98</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BB246" s="1">
         <v>8</v>
@@ -50366,7 +50303,7 @@
         <v>108</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>111</v>
@@ -50375,7 +50312,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>115</v>
@@ -50393,13 +50330,13 @@
         <v>98</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -50434,13 +50371,13 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>97</v>
@@ -50518,7 +50455,7 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BB247" s="1">
         <v>8</v>
@@ -50530,7 +50467,7 @@
         <v>108</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>774</v>
@@ -50542,7 +50479,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>115</v>
@@ -50560,13 +50497,13 @@
         <v>98</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -50601,13 +50538,13 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>97</v>
@@ -50685,7 +50622,7 @@
         <v>98</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB248" s="1">
         <v>8</v>
@@ -50697,7 +50634,7 @@
         <v>108</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>111</v>
@@ -50706,7 +50643,7 @@
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>115</v>
@@ -50727,10 +50664,10 @@
         <v>1009</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -50765,13 +50702,13 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>97</v>
@@ -50846,7 +50783,7 @@
         <v>98</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BB249" s="1">
         <v>8</v>
@@ -50861,10 +50798,10 @@
         <v>108</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>111</v>
@@ -50876,13 +50813,13 @@
         <v>209</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BS249" s="3">
         <v>37513</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>115</v>
@@ -50900,13 +50837,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>119</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -50941,13 +50878,13 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2489</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>97</v>
@@ -51031,10 +50968,10 @@
         <v>108</v>
       </c>
       <c r="BH250" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="BI250" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="BI250" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>111</v>
@@ -51046,13 +50983,13 @@
         <v>99</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BS250" s="3">
         <v>41024</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>115</v>
@@ -51070,13 +51007,13 @@
         <v>98</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -51111,13 +51048,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -51150,7 +51087,7 @@
         <v>103</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>1713</v>
@@ -51174,28 +51111,28 @@
         <v>97</v>
       </c>
       <c r="AQ251" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV251" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="AR251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV251" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY251" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ251" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="BB251" s="1">
         <v>8</v>
@@ -51207,7 +51144,7 @@
         <v>108</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI251" s="1" t="s">
         <v>1016</v>
@@ -51222,13 +51159,13 @@
         <v>112</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BS251" s="3">
         <v>34808</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>115</v>
@@ -51246,13 +51183,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -51287,13 +51224,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -51368,7 +51305,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BB252" s="1">
         <v>8</v>
@@ -51380,10 +51317,10 @@
         <v>108</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>111</v>
@@ -51395,13 +51332,13 @@
         <v>99</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BS252" s="3">
         <v>37336</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>115</v>
@@ -51419,13 +51356,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -51460,13 +51397,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -51544,7 +51481,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB253" s="1">
         <v>8</v>
@@ -51556,10 +51493,10 @@
         <v>108</v>
       </c>
       <c r="BH253" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="BI253" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="BI253" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>111</v>
@@ -51568,7 +51505,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>115</v>
@@ -51586,13 +51523,13 @@
         <v>98</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -51627,13 +51564,13 @@
         <v>93</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -51720,7 +51657,7 @@
         <v>108</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>111</v>
@@ -51729,7 +51666,7 @@
         <v>102</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>115</v>
@@ -51747,13 +51684,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -51788,13 +51725,13 @@
         <v>157</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -51881,13 +51818,13 @@
         <v>108</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>115</v>
@@ -51905,13 +51842,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2118</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -51940,7 +51877,7 @@
         <v>91</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>93</v>
@@ -51949,10 +51886,10 @@
         <v>243</v>
       </c>
       <c r="L256" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>245</v>
@@ -51982,7 +51919,7 @@
         <v>42582</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -52033,10 +51970,10 @@
         <v>246</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>111</v>
@@ -52092,7 +52029,7 @@
         <v>121</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -52110,16 +52047,16 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="Q257" s="3">
         <v>17060</v>
@@ -52152,7 +52089,7 @@
         <v>42628</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -52203,16 +52140,16 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BD257" s="1" t="s">
         <v>222</v>
       </c>
       <c r="BH257" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="BI257" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="BI257" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>111</v>
@@ -52221,7 +52158,7 @@
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>115</v>
@@ -52245,7 +52182,7 @@
         <v>119</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -52262,7 +52199,7 @@
         <v>121</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>98</v>
@@ -52274,22 +52211,22 @@
         <v>91</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="M258" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="Q258" s="3">
         <v>26864</v>
@@ -52319,7 +52256,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>103</v>
@@ -52370,7 +52307,7 @@
         <v>99</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>111</v>
@@ -52382,13 +52319,13 @@
         <v>209</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BS258" s="3">
         <v>102</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>115</v>
@@ -52409,13 +52346,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -52450,10 +52387,10 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="L259" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -52534,7 +52471,7 @@
         <v>224</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -52569,16 +52506,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -52608,7 +52545,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>230</v>
@@ -52659,7 +52596,7 @@
         <v>99</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>111</v>
@@ -52671,13 +52608,13 @@
         <v>220</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>115</v>
@@ -52692,7 +52629,7 @@
         <v>231</v>
       </c>
       <c r="BZ260" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CA260" s="1" t="s">
         <v>117</v>
@@ -52707,7 +52644,7 @@
         <v>431</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -52742,13 +52679,13 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L261" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L261" s="1" t="s">
+      <c r="N261" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -52783,12 +52720,7 @@
       <c r="AA261" s="1">
         <v>0</v>
       </c>
-      <c r="AC261" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD261" s="1" t="s">
-        <v>2586</v>
-      </c>
+      <c r="AC261" s="3"/>
       <c r="AF261" s="1" t="s">
         <v>103</v>
       </c>
@@ -52838,7 +52770,7 @@
         <v>98</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="BB261" s="1">
         <v>8</v>
@@ -52853,7 +52785,7 @@
         <v>108</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="BI261" s="1" t="s">
         <v>1590</v>
@@ -52865,7 +52797,7 @@
         <v>102</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>115</v>
@@ -52889,10 +52821,10 @@
         <v>1049</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -52927,10 +52859,10 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>97</v>
@@ -53011,7 +52943,7 @@
         <v>224</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -53046,16 +52978,16 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="Q263" s="3">
         <v>17470</v>
@@ -53085,7 +53017,7 @@
         <v>43100</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>103</v>
@@ -53136,7 +53068,7 @@
         <v>98</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>111</v>
@@ -53145,7 +53077,7 @@
         <v>102</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>115</v>
@@ -53160,7 +53092,7 @@
         <v>97</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>117</v>
@@ -53169,13 +53101,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="CE263" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>2601</v>
       </c>
     </row>
     <row r="264" spans="1:83" x14ac:dyDescent="0.25">
@@ -53210,7 +53142,7 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>2122</v>
@@ -53329,16 +53261,16 @@
         <v>93</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>2604</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="Q265" s="3">
         <v>23356</v>
@@ -53365,7 +53297,7 @@
         <v>43105</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>103</v>
@@ -53413,7 +53345,7 @@
         <v>98</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>111</v>
@@ -53425,13 +53357,13 @@
         <v>99</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="BS265" s="3">
         <v>34412</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>115</v>
@@ -53449,13 +53381,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="CD265" s="1" t="s">
         <v>2131</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -53490,13 +53422,13 @@
         <v>157</v>
       </c>
       <c r="K266" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>2613</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>97</v>
@@ -53586,13 +53518,13 @@
         <v>108</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>115</v>
@@ -53610,13 +53542,13 @@
         <v>98</v>
       </c>
       <c r="CC266" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CD266" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="CE266" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="CD266" s="1" t="s">
-        <v>2618</v>
-      </c>
-      <c r="CE266" s="1" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -53651,16 +53583,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>2621</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="Q267" s="3">
         <v>17041</v>
@@ -53687,7 +53619,7 @@
         <v>42735</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>103</v>
@@ -53738,7 +53670,7 @@
         <v>98</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>111</v>
@@ -53747,7 +53679,7 @@
         <v>102</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>115</v>
@@ -53768,13 +53700,13 @@
         <v>98</v>
       </c>
       <c r="CC267" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CD267" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="CE267" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="CD267" s="1" t="s">
-        <v>2626</v>
-      </c>
-      <c r="CE267" s="1" t="s">
-        <v>2627</v>
       </c>
     </row>
     <row r="268" spans="1:83" x14ac:dyDescent="0.25">
@@ -53809,16 +53741,16 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N268" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="Q268" s="3">
         <v>17726</v>
@@ -53851,7 +53783,7 @@
         <v>43312</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>230</v>
@@ -53902,10 +53834,10 @@
         <v>98</v>
       </c>
       <c r="AZ268" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>111</v>
@@ -53914,7 +53846,7 @@
         <v>102</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>115</v>
@@ -53932,10 +53864,10 @@
         <v>98</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="CE268" s="1" t="s">
         <v>822</v>
@@ -53973,16 +53905,16 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="N269" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>2637</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="Q269" s="3">
         <v>22645</v>
@@ -54009,7 +53941,7 @@
         <v>43298</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>103</v>
@@ -54057,10 +53989,10 @@
         <v>98</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="BI269" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>111</v>
@@ -54069,13 +54001,13 @@
         <v>99</v>
       </c>
       <c r="BR269" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="BS269" s="3">
         <v>35209</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>115</v>
@@ -54096,13 +54028,14 @@
         <v>1497</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF269" xr:uid="{EF873E17-55B7-43C1-986F-3C9EB1548E90}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>